--- a/Desktop/JOE/Digestion/LIQ 251124/Muka Depan.xlsx
+++ b/Desktop/JOE/Digestion/LIQ 251124/Muka Depan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gunasama\Desktop\JOE\Digestion\LIQ 251124\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEAB6A3-1A5E-48F6-9DA3-D8C6E7AE9DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6713B6B7-3CBE-4424-9A01-9CA43A133621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{95B9FBCE-B557-4AE4-AE15-05F05E04A3B1}"/>
   </bookViews>
@@ -250,6 +250,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -257,9 +260,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -672,89 +672,99 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="B11" t="str">
-            <v>IQC LIQ 1 251124</v>
-          </cell>
-          <cell r="C11">
-            <v>1.514</v>
-          </cell>
+          <cell r="B11"/>
+          <cell r="C11"/>
           <cell r="F11">
-            <v>100.122</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="12">
-          <cell r="B12" t="str">
-            <v>IQC LIQ 2 251124</v>
-          </cell>
-          <cell r="C12">
-            <v>1.5109999999999999</v>
-          </cell>
+          <cell r="B12"/>
+          <cell r="C12"/>
           <cell r="F12">
-            <v>100.06</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="13">
-          <cell r="B13" t="str">
-            <v>IQC LIQ 3 251124</v>
-          </cell>
-          <cell r="C13">
-            <v>1.5109999999999999</v>
-          </cell>
+          <cell r="B13"/>
+          <cell r="C13"/>
           <cell r="F13">
-            <v>100.13500000000001</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="14">
+          <cell r="B14"/>
+          <cell r="C14"/>
           <cell r="F14">
             <v>0</v>
           </cell>
         </row>
         <row r="15">
+          <cell r="B15"/>
+          <cell r="C15"/>
           <cell r="F15">
             <v>0</v>
           </cell>
         </row>
         <row r="16">
+          <cell r="B16"/>
+          <cell r="C16"/>
           <cell r="F16">
             <v>0</v>
           </cell>
         </row>
         <row r="17">
+          <cell r="B17"/>
+          <cell r="C17"/>
           <cell r="F17">
             <v>0</v>
           </cell>
         </row>
         <row r="18">
+          <cell r="B18"/>
+          <cell r="C18"/>
           <cell r="F18">
             <v>0</v>
           </cell>
         </row>
         <row r="19">
+          <cell r="B19"/>
+          <cell r="C19"/>
           <cell r="F19">
             <v>0</v>
           </cell>
         </row>
         <row r="20">
+          <cell r="B20"/>
+          <cell r="C20"/>
           <cell r="F20">
             <v>0</v>
           </cell>
         </row>
         <row r="21">
+          <cell r="B21"/>
+          <cell r="C21"/>
           <cell r="F21">
             <v>0</v>
           </cell>
         </row>
         <row r="22">
+          <cell r="B22"/>
+          <cell r="C22"/>
           <cell r="F22">
             <v>0</v>
           </cell>
         </row>
         <row r="23">
+          <cell r="B23"/>
+          <cell r="C23"/>
           <cell r="F23">
             <v>0</v>
           </cell>
         </row>
         <row r="24">
+          <cell r="B24"/>
+          <cell r="C24"/>
           <cell r="F24">
             <v>0</v>
           </cell>
@@ -1119,19 +1129,19 @@
       <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -1204,20 +1214,20 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13" t="s">
+      <c r="F17" s="14"/>
+      <c r="G17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="13"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
@@ -1290,20 +1300,20 @@
         <f t="shared" si="0"/>
         <v>4)</v>
       </c>
-      <c r="B21" s="8" t="str">
+      <c r="B21" s="8">
         <f>[1]FormGerhadt!$B$11</f>
-        <v>IQC LIQ 1 251124</v>
+        <v>0</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
       <c r="E21" s="10">
         <f>[1]FormGerhadt!$C$11</f>
-        <v>1.514</v>
+        <v>0</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10">
         <f>[1]FormGerhadt!$F$11</f>
-        <v>100.122</v>
+        <v>0</v>
       </c>
       <c r="H21" s="10"/>
     </row>
@@ -1312,20 +1322,20 @@
         <f t="shared" si="0"/>
         <v>5)</v>
       </c>
-      <c r="B22" s="8" t="str">
+      <c r="B22" s="8">
         <f>[1]FormGerhadt!$B$12</f>
-        <v>IQC LIQ 2 251124</v>
+        <v>0</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
       <c r="E22" s="10">
         <f>[1]FormGerhadt!$C$12</f>
-        <v>1.5109999999999999</v>
+        <v>0</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10">
         <f>[1]FormGerhadt!$F$12</f>
-        <v>100.06</v>
+        <v>0</v>
       </c>
       <c r="H22" s="10"/>
     </row>
@@ -1334,20 +1344,20 @@
         <f t="shared" si="0"/>
         <v>6)</v>
       </c>
-      <c r="B23" s="8" t="str">
+      <c r="B23" s="8">
         <f>[1]FormGerhadt!$B$13</f>
-        <v>IQC LIQ 3 251124</v>
+        <v>0</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
       <c r="E23" s="10">
         <f>[1]FormGerhadt!$C$13</f>
-        <v>1.5109999999999999</v>
+        <v>0</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10">
         <f>[1]FormGerhadt!$F$13</f>
-        <v>100.13500000000001</v>
+        <v>0</v>
       </c>
       <c r="H23" s="10"/>
     </row>
@@ -1595,12 +1605,40 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B29:D29"/>
@@ -1617,40 +1655,12 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
   </mergeCells>
   <conditionalFormatting sqref="B18:H34">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
